--- a/Tester Results/TEST_PEAKTIME_REACTIONTIME_TO_STRENGTH.xlsx
+++ b/Tester Results/TEST_PEAKTIME_REACTIONTIME_TO_STRENGTH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,30 +446,20 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>pearson_r</t>
+          <t>spearman_r</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>pearson_p</t>
+          <t>spearman_p</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>spearman_r</t>
+          <t>n</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>spearman_p</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>mean_diff</t>
         </is>
@@ -487,22 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0872354700964164</v>
+        <v>0.02578971968863382</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1170776231461702</v>
+        <v>0.6437244148461119</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02578971968863382</v>
+        <v>324</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6437244148461119</v>
-      </c>
-      <c r="G2" t="n">
-        <v>324</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-30.07345136986824</v>
+        <v>92.25689300411524</v>
       </c>
     </row>
     <row r="3">
@@ -517,22 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.4002152836204187</v>
+        <v>-0.5366818968278821</v>
       </c>
       <c r="D3" t="n">
-        <v>6.811439916405665e-14</v>
+        <v>1.44973140734144e-25</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5366818968278821</v>
+        <v>324</v>
       </c>
       <c r="F3" t="n">
-        <v>1.44973140734144e-25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>324</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-10.12221680196701</v>
+        <v>112.2081275720165</v>
       </c>
     </row>
     <row r="4">
@@ -547,22 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1494359217464881</v>
+        <v>0.07791892983253103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007047380249758777</v>
+        <v>0.1617385594216551</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07791892983253103</v>
+        <v>324</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1617385594216551</v>
-      </c>
-      <c r="G4" t="n">
-        <v>324</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-30.07594953375919</v>
+        <v>1.134897119341559</v>
       </c>
     </row>
     <row r="5">
@@ -577,22 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.4038540703676688</v>
+        <v>-0.5386697465698866</v>
       </c>
       <c r="D5" t="n">
-        <v>3.849694504067118e-14</v>
+        <v>8.90155837032734e-26</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5386697465698866</v>
+        <v>324</v>
       </c>
       <c r="F5" t="n">
-        <v>8.90155837032734e-26</v>
-      </c>
-      <c r="G5" t="n">
-        <v>324</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-10.12471496585795</v>
+        <v>21.08613168724279</v>
       </c>
     </row>
     <row r="6">
@@ -607,22 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1814958960924995</v>
+        <v>0.1600158738541625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001032214668693915</v>
+        <v>0.003879661697487937</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1600158738541625</v>
+        <v>324</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003879661697487937</v>
-      </c>
-      <c r="G6" t="n">
-        <v>324</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-30.03717219727133</v>
+        <v>107.7940118312757</v>
       </c>
     </row>
     <row r="7">
@@ -637,22 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1171042850649719</v>
+        <v>0.1369346169458027</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03511888981286038</v>
+        <v>0.01362777088369083</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1369346169458027</v>
+        <v>324</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01362777088369083</v>
-      </c>
-      <c r="G7" t="n">
-        <v>324</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-10.0859376293701</v>
+        <v>127.7452463991769</v>
       </c>
     </row>
     <row r="8">
@@ -667,22 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1536128331492066</v>
+        <v>0.08165690046153645</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005591734108038445</v>
+        <v>0.1424866265162245</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08165690046153645</v>
+        <v>324</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1424866265162245</v>
-      </c>
-      <c r="G8" t="n">
-        <v>324</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-30.08189394774669</v>
+        <v>12145.06078549383</v>
       </c>
     </row>
     <row r="9">
@@ -697,22 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.3851342749577633</v>
+        <v>-0.5053471280814221</v>
       </c>
       <c r="D9" t="n">
-        <v>6.73746671023436e-13</v>
+        <v>2.099657985557351e-22</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5053471280814221</v>
+        <v>324</v>
       </c>
       <c r="F9" t="n">
-        <v>2.099657985557351e-22</v>
-      </c>
-      <c r="G9" t="n">
-        <v>324</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-10.13065937984545</v>
+        <v>12165.01202006173</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_PEAKTIME_REACTIONTIME_TO_STRENGTH.xlsx
+++ b/Tester Results/TEST_PEAKTIME_REACTIONTIME_TO_STRENGTH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02578971968863382</v>
+        <v>0.02642327408287458</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6437244148461119</v>
+        <v>0.6355972725261866</v>
       </c>
       <c r="E2" t="n">
         <v>324</v>
       </c>
       <c r="F2" t="n">
-        <v>92.25689300411524</v>
+        <v>92.30812757201647</v>
       </c>
     </row>
     <row r="3">
@@ -501,22 +501,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.5366818968278821</v>
+        <v>-0.5366327396638366</v>
       </c>
       <c r="D3" t="n">
-        <v>1.44973140734144e-25</v>
+        <v>1.467262702087708e-25</v>
       </c>
       <c r="E3" t="n">
         <v>324</v>
       </c>
       <c r="F3" t="n">
-        <v>112.2081275720165</v>
+        <v>112.2075102880658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.07791892983253103</v>
+        <v>0.01831694648481384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1617385594216551</v>
+        <v>0.7425651519716943</v>
       </c>
       <c r="E4" t="n">
         <v>324</v>
       </c>
       <c r="F4" t="n">
-        <v>1.134897119341559</v>
+        <v>92.17943878600823</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RMS</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -549,22 +549,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.5386697465698866</v>
+        <v>-0.5358830559112745</v>
       </c>
       <c r="D5" t="n">
-        <v>8.90155837032734e-26</v>
+        <v>1.762040888629575e-25</v>
       </c>
       <c r="E5" t="n">
         <v>324</v>
       </c>
       <c r="F5" t="n">
-        <v>21.08613168724279</v>
+        <v>112.0788215020576</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -573,22 +573,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1600158738541625</v>
+        <v>0.02198114049129878</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003879661697487937</v>
+        <v>0.6934489064461434</v>
       </c>
       <c r="E6" t="n">
         <v>324</v>
       </c>
       <c r="F6" t="n">
-        <v>107.7940118312757</v>
+        <v>80.22727314814816</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tau</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1369346169458027</v>
+        <v>-0.5368152924094414</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01362777088369083</v>
+        <v>1.403191880527584e-25</v>
       </c>
       <c r="E7" t="n">
         <v>324</v>
       </c>
       <c r="F7" t="n">
-        <v>127.7452463991769</v>
+        <v>100.1266558641975</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -621,40 +621,136 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.08165690046153645</v>
+        <v>0.07371888182879793</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1424866265162245</v>
+        <v>0.1856316047312556</v>
       </c>
       <c r="E8" t="n">
         <v>324</v>
       </c>
       <c r="F8" t="n">
-        <v>12145.06078549383</v>
+        <v>17.52039711934157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>RMS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>reactionTime</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.5373432466316141</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.233022897047154e-25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>324</v>
+      </c>
+      <c r="F9" t="n">
+        <v>37.41977983539095</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1604258341398364</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.003788208172312706</v>
+      </c>
+      <c r="E10" t="n">
+        <v>324</v>
+      </c>
+      <c r="F10" t="n">
+        <v>108.1449068930041</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tau</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>reactionTime</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1360264914830115</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.01426921990392392</v>
+      </c>
+      <c r="E11" t="n">
+        <v>324</v>
+      </c>
+      <c r="F11" t="n">
+        <v>128.0442896090535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>AUC</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>peakTime</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.08231772652059781</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1392732829440573</v>
+      </c>
+      <c r="E12" t="n">
+        <v>324</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12145.82931018519</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AUC</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>reactionTime</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C13" t="n">
         <v>-0.5053471280814221</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D13" t="n">
         <v>2.099657985557351e-22</v>
       </c>
-      <c r="E9" t="n">
-        <v>324</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12165.01202006173</v>
+      <c r="E13" t="n">
+        <v>324</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12165.72869290124</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_PEAKTIME_REACTIONTIME_TO_STRENGTH.xlsx
+++ b/Tester Results/TEST_PEAKTIME_REACTIONTIME_TO_STRENGTH.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02642327408287458</v>
+        <v>0.02262607734556411</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6355972725261866</v>
+        <v>0.6849282913932827</v>
       </c>
       <c r="E2" t="n">
         <v>324</v>
       </c>
       <c r="F2" t="n">
-        <v>92.30812757201647</v>
+        <v>91.58811728395062</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.5366327396638366</v>
+        <v>-0.5337439615856781</v>
       </c>
       <c r="D3" t="n">
-        <v>1.467262702087708e-25</v>
+        <v>2.963402089587861e-25</v>
       </c>
       <c r="E3" t="n">
         <v>324</v>
       </c>
       <c r="F3" t="n">
-        <v>112.2075102880658</v>
+        <v>111.378549382716</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01831694648481384</v>
+        <v>0.01540121695521814</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7425651519716943</v>
+        <v>0.7824199142796232</v>
       </c>
       <c r="E4" t="n">
         <v>324</v>
       </c>
       <c r="F4" t="n">
-        <v>92.17943878600823</v>
+        <v>91.46863888888888</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.5358830559112745</v>
+        <v>-0.5331040454649807</v>
       </c>
       <c r="D5" t="n">
-        <v>1.762040888629575e-25</v>
+        <v>3.459552704319897e-25</v>
       </c>
       <c r="E5" t="n">
         <v>324</v>
       </c>
       <c r="F5" t="n">
-        <v>112.0788215020576</v>
+        <v>111.2590709876543</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.02198114049129878</v>
+        <v>0.01430062896809326</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6934489064461434</v>
+        <v>0.7976191583705808</v>
       </c>
       <c r="E6" t="n">
         <v>324</v>
       </c>
       <c r="F6" t="n">
-        <v>80.22727314814816</v>
+        <v>79.48105298353909</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.5368152924094414</v>
+        <v>-0.5331224327538355</v>
       </c>
       <c r="D7" t="n">
-        <v>1.403191880527584e-25</v>
+        <v>3.444214456116033e-25</v>
       </c>
       <c r="E7" t="n">
         <v>324</v>
       </c>
       <c r="F7" t="n">
-        <v>100.1266558641975</v>
+        <v>99.27148508230452</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.07371888182879793</v>
+        <v>0.07073731297143351</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1856316047312556</v>
+        <v>0.2041053141454388</v>
       </c>
       <c r="E8" t="n">
         <v>324</v>
       </c>
       <c r="F8" t="n">
-        <v>17.52039711934157</v>
+        <v>17.3105591563786</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.5373432466316141</v>
+        <v>-0.5323387926957828</v>
       </c>
       <c r="D9" t="n">
-        <v>1.233022897047154e-25</v>
+        <v>4.161304519536523e-25</v>
       </c>
       <c r="E9" t="n">
         <v>324</v>
       </c>
       <c r="F9" t="n">
-        <v>37.41977983539095</v>
+        <v>37.10099125514403</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1604258341398364</v>
+        <v>0.1836483991777754</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003788208172312706</v>
+        <v>0.0008963571980330894</v>
       </c>
       <c r="E10" t="n">
         <v>324</v>
       </c>
       <c r="F10" t="n">
-        <v>108.1449068930041</v>
+        <v>108.5311790123457</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1360264914830115</v>
+        <v>0.1080566870229782</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01426921990392392</v>
+        <v>0.05199244569026731</v>
       </c>
       <c r="E11" t="n">
         <v>324</v>
       </c>
       <c r="F11" t="n">
-        <v>128.0442896090535</v>
+        <v>128.3216111111111</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.08231772652059781</v>
+        <v>0.08553933049464441</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1392732829440573</v>
+        <v>0.1243975007998714</v>
       </c>
       <c r="E12" t="n">
         <v>324</v>
       </c>
       <c r="F12" t="n">
-        <v>12145.82931018519</v>
+        <v>12104.9648441358</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.5053471280814221</v>
+        <v>-0.5089064475985986</v>
       </c>
       <c r="D13" t="n">
-        <v>2.099657985557351e-22</v>
+        <v>9.535784191705703e-23</v>
       </c>
       <c r="E13" t="n">
         <v>324</v>
       </c>
       <c r="F13" t="n">
-        <v>12165.72869290124</v>
+        <v>12124.75527623457</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_PEAKTIME_REACTIONTIME_TO_STRENGTH.xlsx
+++ b/Tester Results/TEST_PEAKTIME_REACTIONTIME_TO_STRENGTH.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02262607734556411</v>
+        <v>0.02642327408287458</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6849282913932827</v>
+        <v>0.6355972725261866</v>
       </c>
       <c r="E2" t="n">
         <v>324</v>
       </c>
       <c r="F2" t="n">
-        <v>91.58811728395062</v>
+        <v>92.30812757201647</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.5337439615856781</v>
+        <v>-0.5366327396638366</v>
       </c>
       <c r="D3" t="n">
-        <v>2.963402089587861e-25</v>
+        <v>1.467262702087708e-25</v>
       </c>
       <c r="E3" t="n">
         <v>324</v>
       </c>
       <c r="F3" t="n">
-        <v>111.378549382716</v>
+        <v>112.2075102880658</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01540121695521814</v>
+        <v>0.01831694648481384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7824199142796232</v>
+        <v>0.7425651519716943</v>
       </c>
       <c r="E4" t="n">
         <v>324</v>
       </c>
       <c r="F4" t="n">
-        <v>91.46863888888888</v>
+        <v>92.17943878600823</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.5331040454649807</v>
+        <v>-0.5358830559112745</v>
       </c>
       <c r="D5" t="n">
-        <v>3.459552704319897e-25</v>
+        <v>1.762040888629575e-25</v>
       </c>
       <c r="E5" t="n">
         <v>324</v>
       </c>
       <c r="F5" t="n">
-        <v>111.2590709876543</v>
+        <v>112.0788215020576</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01430062896809326</v>
+        <v>0.02198114049129878</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7976191583705808</v>
+        <v>0.6934489064461434</v>
       </c>
       <c r="E6" t="n">
         <v>324</v>
       </c>
       <c r="F6" t="n">
-        <v>79.48105298353909</v>
+        <v>80.22727314814816</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.5331224327538355</v>
+        <v>-0.5368152924094414</v>
       </c>
       <c r="D7" t="n">
-        <v>3.444214456116033e-25</v>
+        <v>1.403191880527584e-25</v>
       </c>
       <c r="E7" t="n">
         <v>324</v>
       </c>
       <c r="F7" t="n">
-        <v>99.27148508230452</v>
+        <v>100.1266558641975</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.07073731297143351</v>
+        <v>0.07371888182879793</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2041053141454388</v>
+        <v>0.1856316047312556</v>
       </c>
       <c r="E8" t="n">
         <v>324</v>
       </c>
       <c r="F8" t="n">
-        <v>17.3105591563786</v>
+        <v>17.52039711934157</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.5323387926957828</v>
+        <v>-0.5373432466316141</v>
       </c>
       <c r="D9" t="n">
-        <v>4.161304519536523e-25</v>
+        <v>1.233022897047154e-25</v>
       </c>
       <c r="E9" t="n">
         <v>324</v>
       </c>
       <c r="F9" t="n">
-        <v>37.10099125514403</v>
+        <v>37.41977983539095</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1836483991777754</v>
+        <v>0.1604258341398364</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0008963571980330894</v>
+        <v>0.003788208172312706</v>
       </c>
       <c r="E10" t="n">
         <v>324</v>
       </c>
       <c r="F10" t="n">
-        <v>108.5311790123457</v>
+        <v>108.1449068930041</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1080566870229782</v>
+        <v>0.1360264914830115</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05199244569026731</v>
+        <v>0.01426921990392392</v>
       </c>
       <c r="E11" t="n">
         <v>324</v>
       </c>
       <c r="F11" t="n">
-        <v>128.3216111111111</v>
+        <v>128.0442896090535</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.08553933049464441</v>
+        <v>0.08231772652059781</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1243975007998714</v>
+        <v>0.1392732829440573</v>
       </c>
       <c r="E12" t="n">
         <v>324</v>
       </c>
       <c r="F12" t="n">
-        <v>12104.9648441358</v>
+        <v>12145.82931018519</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.5089064475985986</v>
+        <v>-0.5053471280814221</v>
       </c>
       <c r="D13" t="n">
-        <v>9.535784191705703e-23</v>
+        <v>2.099657985557351e-22</v>
       </c>
       <c r="E13" t="n">
         <v>324</v>
       </c>
       <c r="F13" t="n">
-        <v>12124.75527623457</v>
+        <v>12165.72869290124</v>
       </c>
     </row>
   </sheetData>
